--- a/módulo 06/exercicio-proposto2-tabela-filtro.xlsx
+++ b/módulo 06/exercicio-proposto2-tabela-filtro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acene\Google Drive\Cursos online\Curso_Excel\06 Tabelas e filtros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Curso Excel do básico ao avançado\módulo 06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B222E739-81BD-4FF5-9BD8-0B218CC36F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8670" windowHeight="6780" tabRatio="734" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDados" sheetId="7" r:id="rId1"/>
@@ -19,10 +18,10 @@
     <sheet name="Relatório-Gabarito" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Extract" localSheetId="1">Relatório!$A$4:$F$4</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">Relatório!$A$1:$F$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">Relatório!$A$3:$F$3</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">Relatório!$A$1:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="16">
   <si>
     <t>Mês</t>
   </si>
@@ -86,15 +85,18 @@
   <si>
     <t>&gt;250</t>
   </si>
+  <si>
+    <t>Venda média por cliente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -143,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,20 +201,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,7 +241,7 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -239,17 +252,31 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -282,10 +309,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -320,7 +346,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -369,10 +394,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -389,7 +413,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -438,37 +461,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tab" displayName="Tab" ref="A1:E273">
-  <autoFilter ref="A1:E273" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tab" displayName="Tab" ref="A1:F273">
+  <autoFilter ref="A1:F273"/>
+  <sortState ref="A2:E273">
     <sortCondition ref="B2:B273"/>
     <sortCondition ref="A2:A273"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mês" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ano" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vendedor"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Carteira de Clientes" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Valor Vendido" totalsRowFunction="min" dataDxfId="0" totalsRowDxfId="9" dataCellStyle="Moeda"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="2" name="Ano" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="Vendedor"/>
+    <tableColumn id="4" name="Carteira de Clientes" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" name="Valor Vendido" totalsRowFunction="min" dataDxfId="1" totalsRowDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="Venda média por cliente" dataDxfId="0">
+      <calculatedColumnFormula>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TabGabarito" displayName="TabGabarito" ref="A1:F273">
-  <autoFilter ref="A1:F273" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TabGabarito" displayName="TabGabarito" ref="A1:F273">
+  <autoFilter ref="A1:F273"/>
+  <sortState ref="A2:E273">
     <sortCondition ref="B2:B273"/>
     <sortCondition ref="A2:A273"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Mês" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ano" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Vendedor"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Carteira de Clientes" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Valor Vendido" totalsRowFunction="min" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Venda Média por Cliente" dataCellStyle="Moeda">
+    <tableColumn id="1" name="Mês" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Ano" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Vendedor"/>
+    <tableColumn id="4" name="Carteira de Clientes" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" name="Valor Vendido" totalsRowFunction="min" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="Venda Média por Cliente" dataCellStyle="Moeda">
       <calculatedColumnFormula>TabGabarito[[#This Row],[Valor Vendido]]/TabGabarito[[#This Row],[Carteira de Clientes]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -772,10 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -802,7 +830,9 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -820,7 +850,10 @@
       <c r="E2" s="4">
         <v>7625</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>635.41666666666663</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -838,7 +871,10 @@
       <c r="E3" s="4">
         <v>16020</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>271.52542372881356</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -856,7 +892,10 @@
       <c r="E4" s="4">
         <v>9859</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>128.03896103896105</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -874,7 +913,10 @@
       <c r="E5" s="4">
         <v>10155</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>307.72727272727275</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -892,7 +934,10 @@
       <c r="E6" s="4">
         <v>21591</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>423.35294117647061</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -910,7 +955,10 @@
       <c r="E7" s="4">
         <v>11574</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>115.74</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -928,7 +976,10 @@
       <c r="E8" s="4">
         <v>11242</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>281.05</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -946,7 +997,10 @@
       <c r="E9" s="4">
         <v>12943</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>147.07954545454547</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -964,7 +1018,10 @@
       <c r="E10" s="4">
         <v>3056</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>84.888888888888886</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -982,7 +1039,10 @@
       <c r="E11" s="4">
         <v>12624</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>252.48</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1000,7 +1060,10 @@
       <c r="E12" s="4">
         <v>22011</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>293.48</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1018,7 +1081,10 @@
       <c r="E13" s="4">
         <v>12652</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>178.19718309859155</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1036,7 +1102,10 @@
       <c r="E14" s="4">
         <v>21216</v>
       </c>
-      <c r="F14"/>
+      <c r="F14" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>272</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1054,7 +1123,10 @@
       <c r="E15" s="4">
         <v>11934</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>213.10714285714286</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1072,7 +1144,10 @@
       <c r="E16" s="4">
         <v>16645</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>339.69387755102042</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1090,7 +1165,10 @@
       <c r="E17" s="4">
         <v>15306</v>
       </c>
-      <c r="F17"/>
+      <c r="F17" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>340.13333333333333</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1108,7 +1186,10 @@
       <c r="E18" s="4">
         <v>5119</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>121.88095238095238</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1126,7 +1207,10 @@
       <c r="E19" s="4">
         <v>15883</v>
       </c>
-      <c r="F19"/>
+      <c r="F19" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>311.43137254901961</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1144,7 +1228,10 @@
       <c r="E20" s="4">
         <v>10246</v>
       </c>
-      <c r="F20"/>
+      <c r="F20" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>320.1875</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1162,7 +1249,10 @@
       <c r="E21" s="4">
         <v>21099</v>
       </c>
-      <c r="F21"/>
+      <c r="F21" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>843.96</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -1180,7 +1270,10 @@
       <c r="E22" s="4">
         <v>14038</v>
       </c>
-      <c r="F22"/>
+      <c r="F22" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>319.04545454545456</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1198,7 +1291,10 @@
       <c r="E23" s="4">
         <v>12475</v>
       </c>
-      <c r="F23"/>
+      <c r="F23" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>328.28947368421052</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1216,7 +1312,10 @@
       <c r="E24" s="4">
         <v>14057</v>
       </c>
-      <c r="F24"/>
+      <c r="F24" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>195.23611111111111</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1234,7 +1333,10 @@
       <c r="E25" s="4">
         <v>17044</v>
       </c>
-      <c r="F25"/>
+      <c r="F25" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>191.50561797752809</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1252,7 +1354,10 @@
       <c r="E26" s="4">
         <v>4008</v>
       </c>
-      <c r="F26"/>
+      <c r="F26" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>400.8</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1270,7 +1375,10 @@
       <c r="E27" s="4">
         <v>6436</v>
       </c>
-      <c r="F27"/>
+      <c r="F27" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>169.36842105263159</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1288,7 +1396,10 @@
       <c r="E28" s="4">
         <v>8064</v>
       </c>
-      <c r="F28"/>
+      <c r="F28" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>336</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1306,7 +1417,10 @@
       <c r="E29" s="4">
         <v>14398</v>
       </c>
-      <c r="F29"/>
+      <c r="F29" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>271.66037735849056</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1324,7 +1438,10 @@
       <c r="E30" s="4">
         <v>10816</v>
       </c>
-      <c r="F30"/>
+      <c r="F30" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>116.3010752688172</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1342,7 +1459,10 @@
       <c r="E31" s="4">
         <v>18868</v>
       </c>
-      <c r="F31"/>
+      <c r="F31" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>219.3953488372093</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1360,7 +1480,10 @@
       <c r="E32" s="4">
         <v>14416</v>
       </c>
-      <c r="F32"/>
+      <c r="F32" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>212</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -1378,7 +1501,10 @@
       <c r="E33" s="4">
         <v>12347</v>
       </c>
-      <c r="F33"/>
+      <c r="F33" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>134.20652173913044</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -1396,7 +1522,10 @@
       <c r="E34" s="4">
         <v>4185</v>
       </c>
-      <c r="F34"/>
+      <c r="F34" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>279</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
@@ -1414,7 +1543,10 @@
       <c r="E35" s="4">
         <v>21220</v>
       </c>
-      <c r="F35"/>
+      <c r="F35" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>471.55555555555554</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -1432,7 +1564,10 @@
       <c r="E36" s="4">
         <v>20414</v>
       </c>
-      <c r="F36"/>
+      <c r="F36" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>567.05555555555554</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -1450,7 +1585,10 @@
       <c r="E37" s="4">
         <v>14484</v>
       </c>
-      <c r="F37"/>
+      <c r="F37" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>149.31958762886597</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1468,7 +1606,10 @@
       <c r="E38" s="4">
         <v>7302</v>
       </c>
-      <c r="F38"/>
+      <c r="F38" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>86.928571428571431</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -1486,7 +1627,10 @@
       <c r="E39" s="4">
         <v>22198</v>
       </c>
-      <c r="F39"/>
+      <c r="F39" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>426.88461538461536</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -1504,7 +1648,10 @@
       <c r="E40" s="4">
         <v>20710</v>
       </c>
-      <c r="F40"/>
+      <c r="F40" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>318.61538461538464</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
@@ -1522,7 +1669,10 @@
       <c r="E41" s="4">
         <v>7682</v>
       </c>
-      <c r="F41"/>
+      <c r="F41" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>101.07894736842105</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -1540,7 +1690,10 @@
       <c r="E42" s="4">
         <v>4255</v>
       </c>
-      <c r="F42"/>
+      <c r="F42" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>163.65384615384616</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -1558,7 +1711,10 @@
       <c r="E43" s="4">
         <v>21707</v>
       </c>
-      <c r="F43"/>
+      <c r="F43" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>301.48611111111109</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1576,7 +1732,10 @@
       <c r="E44" s="4">
         <v>8922</v>
       </c>
-      <c r="F44"/>
+      <c r="F44" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>131.20588235294119</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -1594,7 +1753,10 @@
       <c r="E45" s="4">
         <v>13535</v>
       </c>
-      <c r="F45"/>
+      <c r="F45" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>167.09876543209876</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -1612,7 +1774,10 @@
       <c r="E46" s="4">
         <v>12927</v>
       </c>
-      <c r="F46"/>
+      <c r="F46" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>139</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
@@ -1630,7 +1795,10 @@
       <c r="E47" s="4">
         <v>10496</v>
       </c>
-      <c r="F47"/>
+      <c r="F47" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>374.85714285714283</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -1648,7 +1816,10 @@
       <c r="E48" s="4">
         <v>13361</v>
       </c>
-      <c r="F48"/>
+      <c r="F48" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>143.66666666666666</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
@@ -1666,7 +1837,10 @@
       <c r="E49" s="4">
         <v>16429</v>
       </c>
-      <c r="F49"/>
+      <c r="F49" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>657.16</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -1684,7 +1858,10 @@
       <c r="E50" s="4">
         <v>7996</v>
       </c>
-      <c r="F50"/>
+      <c r="F50" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>222.11111111111111</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -1702,7 +1879,10 @@
       <c r="E51" s="4">
         <v>9788</v>
       </c>
-      <c r="F51"/>
+      <c r="F51" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>146.08955223880596</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
@@ -1720,7 +1900,10 @@
       <c r="E52" s="4">
         <v>11003</v>
       </c>
-      <c r="F52"/>
+      <c r="F52" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>177.46774193548387</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1738,7 +1921,10 @@
       <c r="E53" s="4">
         <v>17126</v>
       </c>
-      <c r="F53"/>
+      <c r="F53" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>856.3</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1756,7 +1942,10 @@
       <c r="E54" s="4">
         <v>15731</v>
       </c>
-      <c r="F54"/>
+      <c r="F54" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>296.81132075471697</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
@@ -1774,7 +1963,10 @@
       <c r="E55" s="4">
         <v>11359</v>
       </c>
-      <c r="F55"/>
+      <c r="F55" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>167.04411764705881</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
@@ -1792,7 +1984,10 @@
       <c r="E56" s="4">
         <v>6696</v>
       </c>
-      <c r="F56"/>
+      <c r="F56" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>159.42857142857142</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -1810,7 +2005,10 @@
       <c r="E57" s="4">
         <v>5218</v>
       </c>
-      <c r="F57"/>
+      <c r="F57" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>65.224999999999994</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -1828,7 +2026,10 @@
       <c r="E58" s="4">
         <v>3974</v>
       </c>
-      <c r="F58"/>
+      <c r="F58" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>141.92857142857142</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1846,7 +2047,10 @@
       <c r="E59" s="4">
         <v>5681</v>
       </c>
-      <c r="F59"/>
+      <c r="F59" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>126.24444444444444</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1864,7 +2068,10 @@
       <c r="E60" s="4">
         <v>18208</v>
       </c>
-      <c r="F60"/>
+      <c r="F60" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>202.3111111111111</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -1882,7 +2089,10 @@
       <c r="E61" s="4">
         <v>5062</v>
       </c>
-      <c r="F61"/>
+      <c r="F61" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>50.62</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
@@ -1900,7 +2110,10 @@
       <c r="E62" s="4">
         <v>21601</v>
       </c>
-      <c r="F62"/>
+      <c r="F62" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>257.15476190476193</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
@@ -1918,7 +2131,10 @@
       <c r="E63" s="4">
         <v>6002</v>
       </c>
-      <c r="F63"/>
+      <c r="F63" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>250.08333333333334</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1936,7 +2152,10 @@
       <c r="E64" s="4">
         <v>18688</v>
       </c>
-      <c r="F64"/>
+      <c r="F64" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>359.38461538461536</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -1954,7 +2173,10 @@
       <c r="E65" s="4">
         <v>20899</v>
       </c>
-      <c r="F65"/>
+      <c r="F65" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>401.90384615384613</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -1972,7 +2194,10 @@
       <c r="E66" s="4">
         <v>5546</v>
       </c>
-      <c r="F66"/>
+      <c r="F66" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>221.84</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -1990,7 +2215,10 @@
       <c r="E67" s="4">
         <v>15541</v>
       </c>
-      <c r="F67"/>
+      <c r="F67" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>444.02857142857141</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -2008,7 +2236,10 @@
       <c r="E68" s="4">
         <v>13501</v>
       </c>
-      <c r="F68"/>
+      <c r="F68" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>136.37373737373738</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -2026,7 +2257,10 @@
       <c r="E69" s="4">
         <v>20530</v>
       </c>
-      <c r="F69"/>
+      <c r="F69" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>892.60869565217388</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
@@ -2044,7 +2278,10 @@
       <c r="E70" s="4">
         <v>19284</v>
       </c>
-      <c r="F70"/>
+      <c r="F70" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>200.875</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -2062,7 +2299,10 @@
       <c r="E71" s="4">
         <v>9201</v>
       </c>
-      <c r="F71"/>
+      <c r="F71" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>93.887755102040813</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -2080,7 +2320,10 @@
       <c r="E72" s="4">
         <v>11181</v>
       </c>
-      <c r="F72"/>
+      <c r="F72" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>124.23333333333333</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -2098,7 +2341,10 @@
       <c r="E73" s="4">
         <v>13333</v>
       </c>
-      <c r="F73"/>
+      <c r="F73" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>158.72619047619048</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -2116,7 +2362,10 @@
       <c r="E74" s="4">
         <v>9690</v>
       </c>
-      <c r="F74"/>
+      <c r="F74" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>323</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -2134,7 +2383,10 @@
       <c r="E75" s="4">
         <v>11731</v>
       </c>
-      <c r="F75"/>
+      <c r="F75" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>451.19230769230768</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
@@ -2152,7 +2404,10 @@
       <c r="E76" s="4">
         <v>13479</v>
       </c>
-      <c r="F76"/>
+      <c r="F76" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>148.12087912087912</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
@@ -2170,7 +2425,10 @@
       <c r="E77" s="4">
         <v>5329</v>
       </c>
-      <c r="F77"/>
+      <c r="F77" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>121.11363636363636</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -2188,7 +2446,10 @@
       <c r="E78" s="4">
         <v>11709</v>
       </c>
-      <c r="F78"/>
+      <c r="F78" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>158.22972972972974</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -2206,7 +2467,10 @@
       <c r="E79" s="4">
         <v>11224</v>
       </c>
-      <c r="F79"/>
+      <c r="F79" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>374.13333333333333</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -2224,7 +2488,10 @@
       <c r="E80" s="4">
         <v>19279</v>
       </c>
-      <c r="F80"/>
+      <c r="F80" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>363.75471698113205</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -2242,7 +2509,10 @@
       <c r="E81" s="4">
         <v>12648</v>
       </c>
-      <c r="F81"/>
+      <c r="F81" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>238.64150943396226</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
@@ -2260,7 +2530,10 @@
       <c r="E82" s="4">
         <v>9928</v>
       </c>
-      <c r="F82"/>
+      <c r="F82" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>220.62222222222223</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
@@ -2278,7 +2551,10 @@
       <c r="E83" s="4">
         <v>19349</v>
       </c>
-      <c r="F83"/>
+      <c r="F83" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>339.45614035087721</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
@@ -2296,7 +2572,10 @@
       <c r="E84" s="4">
         <v>18923</v>
       </c>
-      <c r="F84"/>
+      <c r="F84" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>430.06818181818181</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
@@ -2314,7 +2593,10 @@
       <c r="E85" s="4">
         <v>6299</v>
       </c>
-      <c r="F85"/>
+      <c r="F85" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>68.467391304347828</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -2332,7 +2614,10 @@
       <c r="E86" s="4">
         <v>10557</v>
       </c>
-      <c r="F86"/>
+      <c r="F86" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>270.69230769230768</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
@@ -2350,7 +2635,10 @@
       <c r="E87" s="4">
         <v>14870</v>
       </c>
-      <c r="F87"/>
+      <c r="F87" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>247.83333333333334</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -2368,7 +2656,10 @@
       <c r="E88" s="4">
         <v>17427</v>
       </c>
-      <c r="F88"/>
+      <c r="F88" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>622.39285714285711</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -2386,7 +2677,10 @@
       <c r="E89" s="4">
         <v>11507</v>
       </c>
-      <c r="F89"/>
+      <c r="F89" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>155.5</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
@@ -2404,7 +2698,10 @@
       <c r="E90" s="4">
         <v>8095</v>
       </c>
-      <c r="F90"/>
+      <c r="F90" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>172.2340425531915</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
@@ -2422,7 +2719,10 @@
       <c r="E91" s="4">
         <v>20795</v>
       </c>
-      <c r="F91"/>
+      <c r="F91" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>335.40322580645159</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -2440,7 +2740,10 @@
       <c r="E92" s="4">
         <v>12451</v>
       </c>
-      <c r="F92"/>
+      <c r="F92" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>282.97727272727275</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -2458,7 +2761,10 @@
       <c r="E93" s="4">
         <v>7217</v>
       </c>
-      <c r="F93"/>
+      <c r="F93" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>257.75</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -2476,7 +2782,10 @@
       <c r="E94" s="4">
         <v>12383</v>
       </c>
-      <c r="F94"/>
+      <c r="F94" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>187.62121212121212</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2494,7 +2803,10 @@
       <c r="E95" s="4">
         <v>17560</v>
       </c>
-      <c r="F95"/>
+      <c r="F95" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>287.86885245901641</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
@@ -2512,7 +2824,10 @@
       <c r="E96" s="4">
         <v>14937</v>
       </c>
-      <c r="F96"/>
+      <c r="F96" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>533.46428571428567</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
@@ -2530,7 +2845,10 @@
       <c r="E97" s="4">
         <v>20988</v>
       </c>
-      <c r="F97"/>
+      <c r="F97" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>252.86746987951807</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
@@ -2548,7 +2866,10 @@
       <c r="E98" s="4">
         <v>3223</v>
       </c>
-      <c r="F98"/>
+      <c r="F98" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>146.5</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -2566,7 +2887,10 @@
       <c r="E99" s="4">
         <v>18787</v>
       </c>
-      <c r="F99"/>
+      <c r="F99" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>383.40816326530614</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
@@ -2584,7 +2908,10 @@
       <c r="E100" s="4">
         <v>7980</v>
       </c>
-      <c r="F100"/>
+      <c r="F100" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>88.666666666666671</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
@@ -2602,7 +2929,10 @@
       <c r="E101" s="4">
         <v>15608</v>
       </c>
-      <c r="F101"/>
+      <c r="F101" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>260.13333333333333</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
@@ -2620,7 +2950,10 @@
       <c r="E102" s="4">
         <v>16423</v>
       </c>
-      <c r="F102"/>
+      <c r="F102" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>469.22857142857146</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
@@ -2638,7 +2971,10 @@
       <c r="E103" s="4">
         <v>13084</v>
       </c>
-      <c r="F103"/>
+      <c r="F103" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>195.28358208955223</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
@@ -2656,7 +2992,10 @@
       <c r="E104" s="4">
         <v>20171</v>
       </c>
-      <c r="F104"/>
+      <c r="F104" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>672.36666666666667</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
@@ -2674,7 +3013,10 @@
       <c r="E105" s="4">
         <v>20751</v>
       </c>
-      <c r="F105"/>
+      <c r="F105" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>319.24615384615385</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
@@ -2692,7 +3034,10 @@
       <c r="E106" s="4">
         <v>4854</v>
       </c>
-      <c r="F106"/>
+      <c r="F106" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>112.88372093023256</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
@@ -2710,7 +3055,10 @@
       <c r="E107" s="4">
         <v>8269</v>
       </c>
-      <c r="F107"/>
+      <c r="F107" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>179.7608695652174</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
@@ -2728,7 +3076,10 @@
       <c r="E108" s="4">
         <v>11422</v>
       </c>
-      <c r="F108"/>
+      <c r="F108" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>139.29268292682926</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -2746,7 +3097,10 @@
       <c r="E109" s="4">
         <v>11150</v>
       </c>
-      <c r="F109"/>
+      <c r="F109" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>247.77777777777777</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
@@ -2764,7 +3118,10 @@
       <c r="E110" s="4">
         <v>7287</v>
       </c>
-      <c r="F110"/>
+      <c r="F110" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>155.04255319148936</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
@@ -2782,7 +3139,10 @@
       <c r="E111" s="4">
         <v>16370</v>
       </c>
-      <c r="F111"/>
+      <c r="F111" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>292.32142857142856</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
@@ -2800,7 +3160,10 @@
       <c r="E112" s="4">
         <v>21831</v>
       </c>
-      <c r="F112"/>
+      <c r="F112" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>383</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
@@ -2818,7 +3181,10 @@
       <c r="E113" s="4">
         <v>8496</v>
       </c>
-      <c r="F113"/>
+      <c r="F113" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>144</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
@@ -2836,7 +3202,10 @@
       <c r="E114" s="4">
         <v>6537</v>
       </c>
-      <c r="F114"/>
+      <c r="F114" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>233.46428571428572</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
@@ -2854,7 +3223,10 @@
       <c r="E115" s="4">
         <v>10107</v>
       </c>
-      <c r="F115"/>
+      <c r="F115" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>288.77142857142854</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
@@ -2872,7 +3244,10 @@
       <c r="E116" s="4">
         <v>19932</v>
       </c>
-      <c r="F116"/>
+      <c r="F116" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>486.14634146341461</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
@@ -2890,7 +3265,10 @@
       <c r="E117" s="4">
         <v>10740</v>
       </c>
-      <c r="F117"/>
+      <c r="F117" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>210.58823529411765</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
@@ -2908,7 +3286,10 @@
       <c r="E118" s="4">
         <v>6505</v>
       </c>
-      <c r="F118"/>
+      <c r="F118" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>79.329268292682926</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
@@ -2926,7 +3307,10 @@
       <c r="E119" s="4">
         <v>9597</v>
       </c>
-      <c r="F119"/>
+      <c r="F119" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>369.11538461538464</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
@@ -2944,7 +3328,10 @@
       <c r="E120" s="4">
         <v>17349</v>
       </c>
-      <c r="F120"/>
+      <c r="F120" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>321.27777777777777</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
@@ -2962,7 +3349,10 @@
       <c r="E121" s="4">
         <v>11553</v>
       </c>
-      <c r="F121"/>
+      <c r="F121" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>217.98113207547169</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
@@ -2980,7 +3370,10 @@
       <c r="E122" s="4">
         <v>7362</v>
       </c>
-      <c r="F122"/>
+      <c r="F122" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>283.15384615384613</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
@@ -2998,7 +3391,10 @@
       <c r="E123" s="4">
         <v>8624</v>
       </c>
-      <c r="F123"/>
+      <c r="F123" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>191.64444444444445</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
@@ -3016,7 +3412,10 @@
       <c r="E124" s="4">
         <v>13490</v>
       </c>
-      <c r="F124"/>
+      <c r="F124" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>287.02127659574467</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
@@ -3034,7 +3433,10 @@
       <c r="E125" s="4">
         <v>8901</v>
       </c>
-      <c r="F125"/>
+      <c r="F125" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>130.89705882352942</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
@@ -3052,7 +3454,10 @@
       <c r="E126" s="4">
         <v>18942</v>
       </c>
-      <c r="F126"/>
+      <c r="F126" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>305.51612903225805</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
@@ -3070,7 +3475,10 @@
       <c r="E127" s="4">
         <v>6528</v>
       </c>
-      <c r="F127"/>
+      <c r="F127" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>159.21951219512195</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
@@ -3088,7 +3496,10 @@
       <c r="E128" s="4">
         <v>17364</v>
       </c>
-      <c r="F128"/>
+      <c r="F128" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>206.71428571428572</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
@@ -3106,7 +3517,10 @@
       <c r="E129" s="4">
         <v>21582</v>
       </c>
-      <c r="F129"/>
+      <c r="F129" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>224.8125</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
@@ -3124,7 +3538,10 @@
       <c r="E130" s="4">
         <v>4636</v>
       </c>
-      <c r="F130"/>
+      <c r="F130" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>309.06666666666666</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
@@ -3142,7 +3559,10 @@
       <c r="E131" s="4">
         <v>5368</v>
       </c>
-      <c r="F131"/>
+      <c r="F131" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>111.83333333333333</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
@@ -3160,7 +3580,10 @@
       <c r="E132" s="4">
         <v>8549</v>
       </c>
-      <c r="F132"/>
+      <c r="F132" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>237.47222222222223</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
@@ -3178,7 +3601,10 @@
       <c r="E133" s="4">
         <v>13610</v>
       </c>
-      <c r="F133"/>
+      <c r="F133" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>168.02469135802468</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
@@ -3196,7 +3622,10 @@
       <c r="E134" s="4">
         <v>21628</v>
       </c>
-      <c r="F134"/>
+      <c r="F134" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>332.73846153846154</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
@@ -3214,7 +3643,10 @@
       <c r="E135" s="4">
         <v>17826</v>
       </c>
-      <c r="F135"/>
+      <c r="F135" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>775.04347826086962</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
@@ -3232,7 +3664,10 @@
       <c r="E136" s="4">
         <v>19424</v>
       </c>
-      <c r="F136"/>
+      <c r="F136" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>273.57746478873241</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
@@ -3250,7 +3685,10 @@
       <c r="E137" s="4">
         <v>16101</v>
       </c>
-      <c r="F137"/>
+      <c r="F137" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>182.96590909090909</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
@@ -3268,7 +3706,10 @@
       <c r="E138" s="4">
         <v>7705</v>
       </c>
-      <c r="F138"/>
+      <c r="F138" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>592.69230769230774</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
@@ -3286,7 +3727,10 @@
       <c r="E139" s="4">
         <v>17984</v>
       </c>
-      <c r="F139"/>
+      <c r="F139" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>620.13793103448279</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
@@ -3304,7 +3748,10 @@
       <c r="E140" s="4">
         <v>13295</v>
       </c>
-      <c r="F140"/>
+      <c r="F140" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>295.44444444444446</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
@@ -3322,7 +3769,10 @@
       <c r="E141" s="4">
         <v>20474</v>
       </c>
-      <c r="F141"/>
+      <c r="F141" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>584.97142857142853</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
@@ -3340,7 +3790,10 @@
       <c r="E142" s="4">
         <v>6723</v>
       </c>
-      <c r="F142"/>
+      <c r="F142" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>112.05</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
@@ -3358,7 +3811,10 @@
       <c r="E143" s="4">
         <v>20358</v>
       </c>
-      <c r="F143"/>
+      <c r="F143" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>508.95</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
@@ -3376,7 +3832,10 @@
       <c r="E144" s="4">
         <v>5694</v>
       </c>
-      <c r="F144"/>
+      <c r="F144" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>121.14893617021276</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
@@ -3394,7 +3853,10 @@
       <c r="E145" s="4">
         <v>11976</v>
       </c>
-      <c r="F145"/>
+      <c r="F145" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>176.11764705882354</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
@@ -3412,7 +3874,10 @@
       <c r="E146" s="4">
         <v>9793</v>
       </c>
-      <c r="F146"/>
+      <c r="F146" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>816.08333333333337</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
@@ -3430,7 +3895,10 @@
       <c r="E147" s="4">
         <v>22235</v>
       </c>
-      <c r="F147"/>
+      <c r="F147" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>281.45569620253167</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
@@ -3448,7 +3916,10 @@
       <c r="E148" s="4">
         <v>15149</v>
       </c>
-      <c r="F148"/>
+      <c r="F148" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>184.7439024390244</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
@@ -3466,7 +3937,10 @@
       <c r="E149" s="4">
         <v>9126</v>
       </c>
-      <c r="F149"/>
+      <c r="F149" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>169</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
@@ -3484,7 +3958,10 @@
       <c r="E150" s="4">
         <v>8860</v>
       </c>
-      <c r="F150"/>
+      <c r="F150" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>115.06493506493507</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
@@ -3502,7 +3979,10 @@
       <c r="E151" s="4">
         <v>13734</v>
       </c>
-      <c r="F151"/>
+      <c r="F151" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>508.66666666666669</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
@@ -3520,7 +4000,10 @@
       <c r="E152" s="4">
         <v>14394</v>
       </c>
-      <c r="F152"/>
+      <c r="F152" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>252.52631578947367</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
@@ -3538,7 +4021,10 @@
       <c r="E153" s="4">
         <v>14618</v>
       </c>
-      <c r="F153"/>
+      <c r="F153" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>146.18</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
@@ -3556,7 +4042,10 @@
       <c r="E154" s="4">
         <v>3987</v>
       </c>
-      <c r="F154"/>
+      <c r="F154" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>398.7</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
@@ -3574,7 +4063,10 @@
       <c r="E155" s="4">
         <v>22411</v>
       </c>
-      <c r="F155"/>
+      <c r="F155" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>533.59523809523807</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
@@ -3592,7 +4084,10 @@
       <c r="E156" s="4">
         <v>21611</v>
       </c>
-      <c r="F156"/>
+      <c r="F156" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>392.92727272727274</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
@@ -3610,7 +4105,10 @@
       <c r="E157" s="4">
         <v>14770</v>
       </c>
-      <c r="F157"/>
+      <c r="F157" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>369.25</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
@@ -3628,7 +4126,10 @@
       <c r="E158" s="4">
         <v>13335</v>
       </c>
-      <c r="F158"/>
+      <c r="F158" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>193.2608695652174</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
@@ -3646,7 +4147,10 @@
       <c r="E159" s="4">
         <v>18317</v>
       </c>
-      <c r="F159"/>
+      <c r="F159" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>265.463768115942</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
@@ -3664,7 +4168,10 @@
       <c r="E160" s="4">
         <v>7634</v>
       </c>
-      <c r="F160"/>
+      <c r="F160" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>109.05714285714286</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
@@ -3682,7 +4189,10 @@
       <c r="E161" s="4">
         <v>12561</v>
       </c>
-      <c r="F161"/>
+      <c r="F161" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>142.73863636363637</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
@@ -3700,7 +4210,10 @@
       <c r="E162" s="4">
         <v>6926</v>
       </c>
-      <c r="F162"/>
+      <c r="F162" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>277.04000000000002</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
@@ -3718,7 +4231,10 @@
       <c r="E163" s="4">
         <v>15017</v>
       </c>
-      <c r="F163"/>
+      <c r="F163" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>484.41935483870969</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
@@ -3736,7 +4252,10 @@
       <c r="E164" s="4">
         <v>18170</v>
       </c>
-      <c r="F164"/>
+      <c r="F164" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>349.42307692307691</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
@@ -3754,7 +4273,10 @@
       <c r="E165" s="4">
         <v>17633</v>
       </c>
-      <c r="F165"/>
+      <c r="F165" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>391.84444444444443</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
@@ -3772,7 +4294,10 @@
       <c r="E166" s="4">
         <v>18747</v>
       </c>
-      <c r="F166"/>
+      <c r="F166" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>323.22413793103448</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
@@ -3790,7 +4315,10 @@
       <c r="E167" s="4">
         <v>16788</v>
       </c>
-      <c r="F167"/>
+      <c r="F167" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>171.30612244897958</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
@@ -3808,7 +4336,10 @@
       <c r="E168" s="4">
         <v>19057</v>
       </c>
-      <c r="F168"/>
+      <c r="F168" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>209.41758241758242</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
@@ -3826,7 +4357,10 @@
       <c r="E169" s="4">
         <v>14183</v>
       </c>
-      <c r="F169"/>
+      <c r="F169" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>150.88297872340425</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
@@ -3844,7 +4378,10 @@
       <c r="E170" s="4">
         <v>7951</v>
       </c>
-      <c r="F170"/>
+      <c r="F170" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>169.17021276595744</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
@@ -3862,7 +4399,10 @@
       <c r="E171" s="4">
         <v>13231</v>
       </c>
-      <c r="F171"/>
+      <c r="F171" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>197.47761194029852</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
@@ -3880,7 +4420,10 @@
       <c r="E172" s="4">
         <v>16437</v>
       </c>
-      <c r="F172"/>
+      <c r="F172" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>200.45121951219511</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
@@ -3898,7 +4441,10 @@
       <c r="E173" s="4">
         <v>5253</v>
       </c>
-      <c r="F173"/>
+      <c r="F173" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>87.55</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
@@ -3916,7 +4462,10 @@
       <c r="E174" s="4">
         <v>15927</v>
       </c>
-      <c r="F174"/>
+      <c r="F174" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>234.22058823529412</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
@@ -3934,7 +4483,10 @@
       <c r="E175" s="4">
         <v>12954</v>
       </c>
-      <c r="F175"/>
+      <c r="F175" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>166.07692307692307</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
@@ -3952,7 +4504,10 @@
       <c r="E176" s="4">
         <v>9682</v>
       </c>
-      <c r="F176"/>
+      <c r="F176" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>129.09333333333333</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
@@ -3970,7 +4525,10 @@
       <c r="E177" s="4">
         <v>8114</v>
       </c>
-      <c r="F177"/>
+      <c r="F177" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>96.595238095238102</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
@@ -3988,7 +4546,10 @@
       <c r="E178" s="4">
         <v>4864</v>
       </c>
-      <c r="F178"/>
+      <c r="F178" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>110.54545454545455</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
@@ -4006,7 +4567,10 @@
       <c r="E179" s="4">
         <v>15963</v>
       </c>
-      <c r="F179"/>
+      <c r="F179" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>514.93548387096769</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
@@ -4024,7 +4588,10 @@
       <c r="E180" s="4">
         <v>14626</v>
       </c>
-      <c r="F180"/>
+      <c r="F180" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>406.27777777777777</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
@@ -4042,7 +4609,10 @@
       <c r="E181" s="4">
         <v>14528</v>
       </c>
-      <c r="F181"/>
+      <c r="F181" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>201.77777777777777</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
@@ -4060,7 +4630,10 @@
       <c r="E182" s="4">
         <v>22086</v>
       </c>
-      <c r="F182"/>
+      <c r="F182" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>424.73076923076923</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
@@ -4078,7 +4651,10 @@
       <c r="E183" s="4">
         <v>5059</v>
       </c>
-      <c r="F183"/>
+      <c r="F183" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>85.745762711864401</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
@@ -4096,7 +4672,10 @@
       <c r="E184" s="4">
         <v>10293</v>
       </c>
-      <c r="F184"/>
+      <c r="F184" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>102.93</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
@@ -4114,7 +4693,10 @@
       <c r="E185" s="4">
         <v>9564</v>
       </c>
-      <c r="F185"/>
+      <c r="F185" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>199.25</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
@@ -4132,7 +4714,10 @@
       <c r="E186" s="4">
         <v>4938</v>
       </c>
-      <c r="F186"/>
+      <c r="F186" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>112.22727272727273</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
@@ -4150,7 +4735,10 @@
       <c r="E187" s="4">
         <v>17460</v>
       </c>
-      <c r="F187"/>
+      <c r="F187" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>498.85714285714283</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
@@ -4168,7 +4756,10 @@
       <c r="E188" s="4">
         <v>14684</v>
       </c>
-      <c r="F188"/>
+      <c r="F188" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>157.89247311827958</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
@@ -4186,7 +4777,10 @@
       <c r="E189" s="4">
         <v>6100</v>
       </c>
-      <c r="F189"/>
+      <c r="F189" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>78.205128205128204</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
@@ -4204,7 +4798,10 @@
       <c r="E190" s="4">
         <v>21753</v>
       </c>
-      <c r="F190"/>
+      <c r="F190" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>505.88372093023258</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
@@ -4222,7 +4819,10 @@
       <c r="E191" s="4">
         <v>19840</v>
       </c>
-      <c r="F191"/>
+      <c r="F191" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>862.60869565217388</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
@@ -4240,7 +4840,10 @@
       <c r="E192" s="4">
         <v>18180</v>
       </c>
-      <c r="F192"/>
+      <c r="F192" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>206.59090909090909</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
@@ -4258,7 +4861,10 @@
       <c r="E193" s="4">
         <v>18174</v>
       </c>
-      <c r="F193"/>
+      <c r="F193" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>201.93333333333334</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
@@ -4276,7 +4882,10 @@
       <c r="E194" s="4">
         <v>9400</v>
       </c>
-      <c r="F194"/>
+      <c r="F194" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>223.8095238095238</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
@@ -4294,7 +4903,10 @@
       <c r="E195" s="4">
         <v>18081</v>
       </c>
-      <c r="F195"/>
+      <c r="F195" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>287</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
@@ -4312,7 +4924,10 @@
       <c r="E196" s="4">
         <v>13175</v>
       </c>
-      <c r="F196"/>
+      <c r="F196" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>306.39534883720933</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
@@ -4330,7 +4945,10 @@
       <c r="E197" s="4">
         <v>19349</v>
       </c>
-      <c r="F197"/>
+      <c r="F197" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>276.41428571428571</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
@@ -4348,7 +4966,10 @@
       <c r="E198" s="4">
         <v>17241</v>
       </c>
-      <c r="F198"/>
+      <c r="F198" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>175.92857142857142</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
@@ -4366,7 +4987,10 @@
       <c r="E199" s="4">
         <v>12436</v>
       </c>
-      <c r="F199"/>
+      <c r="F199" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>289.2093023255814</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
@@ -4384,7 +5008,10 @@
       <c r="E200" s="4">
         <v>8244</v>
       </c>
-      <c r="F200"/>
+      <c r="F200" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>191.72093023255815</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
@@ -4402,7 +5029,10 @@
       <c r="E201" s="4">
         <v>13249</v>
       </c>
-      <c r="F201"/>
+      <c r="F201" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>315.45238095238096</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
@@ -4420,7 +5050,10 @@
       <c r="E202" s="4">
         <v>7431</v>
       </c>
-      <c r="F202"/>
+      <c r="F202" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>285.80769230769232</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
@@ -4438,7 +5071,10 @@
       <c r="E203" s="4">
         <v>8206</v>
       </c>
-      <c r="F203"/>
+      <c r="F203" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>234.45714285714286</v>
+      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
@@ -4456,7 +5092,10 @@
       <c r="E204" s="4">
         <v>12578</v>
       </c>
-      <c r="F204"/>
+      <c r="F204" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>190.57575757575756</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
@@ -4474,7 +5113,10 @@
       <c r="E205" s="4">
         <v>16618</v>
       </c>
-      <c r="F205"/>
+      <c r="F205" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>519.3125</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
@@ -4492,7 +5134,10 @@
       <c r="E206" s="4">
         <v>20903</v>
       </c>
-      <c r="F206"/>
+      <c r="F206" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>720.79310344827582</v>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
@@ -4510,7 +5155,10 @@
       <c r="E207" s="4">
         <v>14852</v>
       </c>
-      <c r="F207"/>
+      <c r="F207" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>151.55102040816325</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
@@ -4528,7 +5176,10 @@
       <c r="E208" s="4">
         <v>19738</v>
       </c>
-      <c r="F208"/>
+      <c r="F208" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>563.94285714285718</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
@@ -4546,7 +5197,10 @@
       <c r="E209" s="4">
         <v>8290</v>
       </c>
-      <c r="F209"/>
+      <c r="F209" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>106.28205128205128</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
@@ -4564,7 +5218,10 @@
       <c r="E210" s="4">
         <v>6096</v>
       </c>
-      <c r="F210"/>
+      <c r="F210" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>179.29411764705881</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
@@ -4582,7 +5239,10 @@
       <c r="E211" s="4">
         <v>8831</v>
       </c>
-      <c r="F211"/>
+      <c r="F211" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>127.98550724637681</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
@@ -4600,7 +5260,10 @@
       <c r="E212" s="4">
         <v>15633</v>
       </c>
-      <c r="F212"/>
+      <c r="F212" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>248.14285714285714</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
@@ -4618,7 +5281,10 @@
       <c r="E213" s="4">
         <v>7983</v>
       </c>
-      <c r="F213"/>
+      <c r="F213" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>84.031578947368416</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
@@ -4636,7 +5302,10 @@
       <c r="E214" s="4">
         <v>12595</v>
       </c>
-      <c r="F214"/>
+      <c r="F214" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>224.91071428571428</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
@@ -4654,7 +5323,10 @@
       <c r="E215" s="4">
         <v>13423</v>
       </c>
-      <c r="F215"/>
+      <c r="F215" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>319.59523809523807</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
@@ -4672,7 +5344,10 @@
       <c r="E216" s="4">
         <v>8993</v>
       </c>
-      <c r="F216"/>
+      <c r="F216" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>101.04494382022472</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
@@ -4690,7 +5365,10 @@
       <c r="E217" s="4">
         <v>14124</v>
       </c>
-      <c r="F217"/>
+      <c r="F217" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>307.04347826086956</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
@@ -4708,7 +5386,10 @@
       <c r="E218" s="4">
         <v>7009</v>
       </c>
-      <c r="F218"/>
+      <c r="F218" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>333.76190476190476</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
@@ -4726,7 +5407,10 @@
       <c r="E219" s="4">
         <v>5787</v>
       </c>
-      <c r="F219"/>
+      <c r="F219" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>103.33928571428571</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
@@ -4744,7 +5428,10 @@
       <c r="E220" s="4">
         <v>11999</v>
       </c>
-      <c r="F220"/>
+      <c r="F220" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>184.6</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
@@ -4762,7 +5449,10 @@
       <c r="E221" s="4">
         <v>8288</v>
       </c>
-      <c r="F221"/>
+      <c r="F221" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>91.07692307692308</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
@@ -4780,7 +5470,10 @@
       <c r="E222" s="4">
         <v>19476</v>
       </c>
-      <c r="F222"/>
+      <c r="F222" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>367.47169811320754</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
@@ -4798,7 +5491,10 @@
       <c r="E223" s="4">
         <v>6704</v>
       </c>
-      <c r="F223"/>
+      <c r="F223" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>167.6</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
@@ -4816,7 +5512,10 @@
       <c r="E224" s="4">
         <v>14045</v>
       </c>
-      <c r="F224"/>
+      <c r="F224" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>149.41489361702128</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
@@ -4834,7 +5533,10 @@
       <c r="E225" s="4">
         <v>22274</v>
       </c>
-      <c r="F225"/>
+      <c r="F225" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>313.71830985915494</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
@@ -4852,7 +5554,10 @@
       <c r="E226" s="4">
         <v>7957</v>
       </c>
-      <c r="F226"/>
+      <c r="F226" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>284.17857142857144</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
@@ -4870,7 +5575,10 @@
       <c r="E227" s="4">
         <v>9103</v>
       </c>
-      <c r="F227"/>
+      <c r="F227" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>275.84848484848487</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
@@ -4888,7 +5596,10 @@
       <c r="E228" s="4">
         <v>14429</v>
       </c>
-      <c r="F228"/>
+      <c r="F228" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>229.03174603174602</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
@@ -4906,7 +5617,10 @@
       <c r="E229" s="4">
         <v>17913</v>
       </c>
-      <c r="F229"/>
+      <c r="F229" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>194.70652173913044</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
@@ -4924,7 +5638,10 @@
       <c r="E230" s="4">
         <v>18196</v>
       </c>
-      <c r="F230"/>
+      <c r="F230" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>271.58208955223881</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
@@ -4942,7 +5659,10 @@
       <c r="E231" s="4">
         <v>6384</v>
       </c>
-      <c r="F231"/>
+      <c r="F231" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>236.44444444444446</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
@@ -4960,7 +5680,10 @@
       <c r="E232" s="4">
         <v>12763</v>
       </c>
-      <c r="F232"/>
+      <c r="F232" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>172.47297297297297</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
@@ -4978,7 +5701,10 @@
       <c r="E233" s="4">
         <v>5283</v>
       </c>
-      <c r="F233"/>
+      <c r="F233" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>110.0625</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
@@ -4996,7 +5722,10 @@
       <c r="E234" s="4">
         <v>8193</v>
       </c>
-      <c r="F234"/>
+      <c r="F234" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>248.27272727272728</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
@@ -5014,7 +5743,10 @@
       <c r="E235" s="4">
         <v>21413</v>
       </c>
-      <c r="F235"/>
+      <c r="F235" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>486.65909090909093</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
@@ -5032,7 +5764,10 @@
       <c r="E236" s="4">
         <v>15912</v>
       </c>
-      <c r="F236"/>
+      <c r="F236" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>345.91304347826087</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
@@ -5050,7 +5785,10 @@
       <c r="E237" s="4">
         <v>17982</v>
       </c>
-      <c r="F237"/>
+      <c r="F237" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>285.42857142857144</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
@@ -5068,7 +5806,10 @@
       <c r="E238" s="4">
         <v>16415</v>
       </c>
-      <c r="F238"/>
+      <c r="F238" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>248.71212121212122</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
@@ -5086,7 +5827,10 @@
       <c r="E239" s="4">
         <v>19679</v>
       </c>
-      <c r="F239"/>
+      <c r="F239" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>418.70212765957444</v>
+      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
@@ -5104,7 +5848,10 @@
       <c r="E240" s="4">
         <v>19236</v>
       </c>
-      <c r="F240"/>
+      <c r="F240" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>267.16666666666669</v>
+      </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
@@ -5122,7 +5869,10 @@
       <c r="E241" s="4">
         <v>7050</v>
       </c>
-      <c r="F241"/>
+      <c r="F241" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>195.83333333333334</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
@@ -5140,7 +5890,10 @@
       <c r="E242" s="4">
         <v>7318</v>
       </c>
-      <c r="F242"/>
+      <c r="F242" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>292.72000000000003</v>
+      </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
@@ -5158,7 +5911,10 @@
       <c r="E243" s="4">
         <v>10549</v>
       </c>
-      <c r="F243"/>
+      <c r="F243" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>319.66666666666669</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
@@ -5176,7 +5932,10 @@
       <c r="E244" s="4">
         <v>9208</v>
       </c>
-      <c r="F244"/>
+      <c r="F244" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>105.83908045977012</v>
+      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
@@ -5194,7 +5953,10 @@
       <c r="E245" s="4">
         <v>10253</v>
       </c>
-      <c r="F245"/>
+      <c r="F245" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>262.89743589743591</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
@@ -5212,7 +5974,10 @@
       <c r="E246" s="4">
         <v>10748</v>
       </c>
-      <c r="F246"/>
+      <c r="F246" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>137.7948717948718</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
@@ -5230,7 +5995,10 @@
       <c r="E247" s="4">
         <v>15500</v>
       </c>
-      <c r="F247"/>
+      <c r="F247" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>201.2987012987013</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
@@ -5248,7 +6016,10 @@
       <c r="E248" s="4">
         <v>9540</v>
       </c>
-      <c r="F248"/>
+      <c r="F248" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>164.48275862068965</v>
+      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
@@ -5266,7 +6037,10 @@
       <c r="E249" s="4">
         <v>5501</v>
       </c>
-      <c r="F249"/>
+      <c r="F249" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>83.348484848484844</v>
+      </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
@@ -5284,7 +6058,10 @@
       <c r="E250" s="4">
         <v>9751</v>
       </c>
-      <c r="F250"/>
+      <c r="F250" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>314.54838709677421</v>
+      </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
@@ -5302,7 +6079,10 @@
       <c r="E251" s="4">
         <v>12021</v>
       </c>
-      <c r="F251"/>
+      <c r="F251" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>162.44594594594594</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
@@ -5320,7 +6100,10 @@
       <c r="E252" s="4">
         <v>19380</v>
       </c>
-      <c r="F252"/>
+      <c r="F252" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>215.33333333333334</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
@@ -5338,7 +6121,10 @@
       <c r="E253" s="4">
         <v>11396</v>
       </c>
-      <c r="F253"/>
+      <c r="F253" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>379.86666666666667</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
@@ -5356,7 +6142,10 @@
       <c r="E254" s="4">
         <v>9034</v>
       </c>
-      <c r="F254"/>
+      <c r="F254" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>361.36</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
@@ -5374,7 +6163,10 @@
       <c r="E255" s="4">
         <v>20533</v>
       </c>
-      <c r="F255"/>
+      <c r="F255" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>225.63736263736263</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
@@ -5392,7 +6184,10 @@
       <c r="E256" s="4">
         <v>16885</v>
       </c>
-      <c r="F256"/>
+      <c r="F256" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>367.06521739130437</v>
+      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
@@ -5410,7 +6205,10 @@
       <c r="E257" s="4">
         <v>20953</v>
       </c>
-      <c r="F257"/>
+      <c r="F257" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>361.25862068965517</v>
+      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
@@ -5428,7 +6226,10 @@
       <c r="E258" s="4">
         <v>4147</v>
       </c>
-      <c r="F258"/>
+      <c r="F258" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>92.155555555555551</v>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
@@ -5446,7 +6247,10 @@
       <c r="E259" s="4">
         <v>17016</v>
       </c>
-      <c r="F259"/>
+      <c r="F259" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>321.05660377358492</v>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
@@ -5464,7 +6268,10 @@
       <c r="E260" s="4">
         <v>5514</v>
       </c>
-      <c r="F260"/>
+      <c r="F260" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>91.9</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
@@ -5482,7 +6289,10 @@
       <c r="E261" s="4">
         <v>19416</v>
       </c>
-      <c r="F261"/>
+      <c r="F261" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>554.74285714285713</v>
+      </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
@@ -5500,7 +6310,10 @@
       <c r="E262" s="4">
         <v>10959</v>
       </c>
-      <c r="F262"/>
+      <c r="F262" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>267.29268292682929</v>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
@@ -5518,7 +6331,10 @@
       <c r="E263" s="4">
         <v>17631</v>
       </c>
-      <c r="F263"/>
+      <c r="F263" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>255.52173913043478</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
@@ -5536,7 +6352,10 @@
       <c r="E264" s="4">
         <v>12213</v>
       </c>
-      <c r="F264"/>
+      <c r="F264" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>182.28358208955223</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
@@ -5554,7 +6373,10 @@
       <c r="E265" s="4">
         <v>19882</v>
       </c>
-      <c r="F265"/>
+      <c r="F265" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>292.38235294117646</v>
+      </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
@@ -5572,7 +6394,10 @@
       <c r="E266" s="4">
         <v>6871</v>
       </c>
-      <c r="F266"/>
+      <c r="F266" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>171.77500000000001</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
@@ -5590,7 +6415,10 @@
       <c r="E267" s="4">
         <v>13900</v>
       </c>
-      <c r="F267"/>
+      <c r="F267" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>257.40740740740739</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
@@ -5608,7 +6436,10 @@
       <c r="E268" s="4">
         <v>18385</v>
       </c>
-      <c r="F268"/>
+      <c r="F268" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>199.83695652173913</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
@@ -5626,7 +6457,10 @@
       <c r="E269" s="4">
         <v>19890</v>
       </c>
-      <c r="F269"/>
+      <c r="F269" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>361.63636363636363</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
@@ -5644,7 +6478,10 @@
       <c r="E270" s="4">
         <v>6990</v>
       </c>
-      <c r="F270"/>
+      <c r="F270" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>89.615384615384613</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
@@ -5662,7 +6499,10 @@
       <c r="E271" s="4">
         <v>15367</v>
       </c>
-      <c r="F271"/>
+      <c r="F271" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>160.07291666666666</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
@@ -5680,7 +6520,10 @@
       <c r="E272" s="4">
         <v>21093</v>
       </c>
-      <c r="F272"/>
+      <c r="F272" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>222.03157894736842</v>
+      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
@@ -5698,7 +6541,10 @@
       <c r="E273" s="4">
         <v>22465</v>
       </c>
-      <c r="F273"/>
+      <c r="F273" s="17">
+        <f>Tab[[#This Row],[Valor Vendido]]/Tab[[#This Row],[Carteira de Clientes]]</f>
+        <v>273.96341463414632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5709,11 +6555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5742,271 +6588,794 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>2018</f>
+        <v>2018</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18081</v>
+      </c>
+      <c r="F4" s="17">
+        <v>287</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4">
+        <v>13175</v>
+      </c>
+      <c r="F5" s="17">
+        <v>306.39534883720933</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="16"/>
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19349</v>
+      </c>
+      <c r="F6" s="17">
+        <v>276.41428571428571</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12436</v>
+      </c>
+      <c r="F7" s="17">
+        <v>289.2093023255814</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4">
+        <v>13249</v>
+      </c>
+      <c r="F8" s="17">
+        <v>315.45238095238096</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7431</v>
+      </c>
+      <c r="F9" s="17">
+        <v>285.80769230769232</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
+        <v>16618</v>
+      </c>
+      <c r="F10" s="17">
+        <v>519.3125</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20903</v>
+      </c>
+      <c r="F11" s="17">
+        <v>720.79310344827582</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4">
+        <v>19738</v>
+      </c>
+      <c r="F12" s="17">
+        <v>563.94285714285718</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4">
+        <v>13423</v>
+      </c>
+      <c r="F13" s="17">
+        <v>319.59523809523807</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="16"/>
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4">
+        <v>14124</v>
+      </c>
+      <c r="F14" s="17">
+        <v>307.04347826086956</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7009</v>
+      </c>
+      <c r="F15" s="17">
+        <v>333.76190476190476</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>53</v>
+      </c>
+      <c r="E16" s="4">
+        <v>19476</v>
+      </c>
+      <c r="F16" s="17">
+        <v>367.47169811320754</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4">
+        <v>22274</v>
+      </c>
+      <c r="F17" s="17">
+        <v>313.71830985915494</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="5">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7957</v>
+      </c>
+      <c r="F18" s="17">
+        <v>284.17857142857144</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9103</v>
+      </c>
+      <c r="F19" s="17">
+        <v>275.84848484848487</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18196</v>
+      </c>
+      <c r="F20" s="17">
+        <v>271.58208955223881</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4">
+        <v>21413</v>
+      </c>
+      <c r="F21" s="17">
+        <v>486.65909090909093</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>46</v>
+      </c>
+      <c r="E22" s="4">
+        <v>15912</v>
+      </c>
+      <c r="F22" s="17">
+        <v>345.91304347826087</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4">
+        <v>17982</v>
+      </c>
+      <c r="F23" s="17">
+        <v>285.42857142857144</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="5">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>47</v>
+      </c>
+      <c r="E24" s="4">
+        <v>19679</v>
+      </c>
+      <c r="F24" s="17">
+        <v>418.70212765957444</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="5">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4">
+        <v>19236</v>
+      </c>
+      <c r="F25" s="17">
+        <v>267.16666666666669</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="5">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7318</v>
+      </c>
+      <c r="F26" s="17">
+        <v>292.72000000000003</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="5">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10549</v>
+      </c>
+      <c r="F27" s="17">
+        <v>319.66666666666669</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="5">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10253</v>
+      </c>
+      <c r="F28" s="17">
+        <v>262.89743589743591</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="5">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4">
+        <v>9751</v>
+      </c>
+      <c r="F29" s="17">
+        <v>314.54838709677421</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="5">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>11396</v>
+      </c>
+      <c r="F30" s="17">
+        <v>379.86666666666667</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="5">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4">
+        <v>9034</v>
+      </c>
+      <c r="F31" s="17">
+        <v>361.36</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="5">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2">
+        <v>46</v>
+      </c>
+      <c r="E32" s="4">
+        <v>16885</v>
+      </c>
+      <c r="F32" s="17">
+        <v>367.06521739130437</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="5">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2">
+        <v>58</v>
+      </c>
+      <c r="E33" s="4">
+        <v>20953</v>
+      </c>
+      <c r="F33" s="17">
+        <v>361.25862068965517</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="5">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>53</v>
+      </c>
+      <c r="E34" s="4">
+        <v>17016</v>
+      </c>
+      <c r="F34" s="17">
+        <v>321.05660377358492</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="5">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>35</v>
+      </c>
+      <c r="E35" s="4">
+        <v>19416</v>
+      </c>
+      <c r="F35" s="17">
+        <v>554.74285714285713</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="5">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>41</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10959</v>
+      </c>
+      <c r="F36" s="17">
+        <v>267.29268292682929</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="5">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>69</v>
+      </c>
+      <c r="E37" s="4">
+        <v>17631</v>
+      </c>
+      <c r="F37" s="17">
+        <v>255.52173913043478</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="5">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2">
+        <v>68</v>
+      </c>
+      <c r="E38" s="4">
+        <v>19882</v>
+      </c>
+      <c r="F38" s="17">
+        <v>292.38235294117646</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="5">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>54</v>
+      </c>
+      <c r="E39" s="4">
+        <v>13900</v>
+      </c>
+      <c r="F39" s="17">
+        <v>257.40740740740739</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="5">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>55</v>
+      </c>
+      <c r="E40" s="4">
+        <v>19890</v>
+      </c>
+      <c r="F40" s="17">
+        <v>361.63636363636363</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="5">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>82</v>
+      </c>
+      <c r="E41" s="4">
+        <v>22465</v>
+      </c>
+      <c r="F41" s="17">
+        <v>273.96341463414632</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
@@ -6017,11 +7386,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A237" workbookViewId="0">
@@ -11778,11 +13148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12599,7 +13969,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F43">
+  <sortState ref="A6:F43">
     <sortCondition descending="1" ref="F6:F43"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
